--- a/docs/PPG/Autoavaliação.xlsx
+++ b/docs/PPG/Autoavaliação.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08527D7-1581-E148-B194-46D86229A75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B61C5F-AD0D-C148-B7FE-23A83A07B961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Publicação</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1fi5VtKblMVEZ--_0_49ijnFn0VmqDyfS</t>
+  </si>
+  <si>
+    <t>GT-09 Autoavaliação – 1 Programa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bwusW-mvNCu8jddjShxru6n5rGJ-JH7a</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,6 +596,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{A7DA1C44-4E81-9C4D-84AA-C4B46C8E0CA0}"/>
@@ -598,6 +615,7 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{5C7618D2-0379-2440-B242-831DCBF5D066}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{B0902303-CA82-3D43-A334-1731092BD19D}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{C77712AF-537C-734A-8401-7258464011DE}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{58117109-4234-094E-B82A-AC2BBED8C741}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Autoavaliação.xlsx
+++ b/docs/PPG/Autoavaliação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B61C5F-AD0D-C148-B7FE-23A83A07B961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B95E60-F529-9747-8037-2991BDE7F458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Publicação</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1bwusW-mvNCu8jddjShxru6n5rGJ-JH7a</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OPOYuO7Ppc7Y6GCL6ExlrzY5scactMAB</t>
+  </si>
+  <si>
+    <t>GT-11 Autoavaliação – 3 Impacto na Sociedade</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,6 +613,17 @@
         <v>33</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{A7DA1C44-4E81-9C4D-84AA-C4B46C8E0CA0}"/>
@@ -616,6 +633,7 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{B0902303-CA82-3D43-A334-1731092BD19D}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{C77712AF-537C-734A-8401-7258464011DE}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{58117109-4234-094E-B82A-AC2BBED8C741}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{2767A6D6-224B-6544-B6DF-C4D38AC2BE86}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Autoavaliação.xlsx
+++ b/docs/PPG/Autoavaliação.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B95E60-F529-9747-8037-2991BDE7F458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8AAE3B-60E8-214A-8B30-73C30B19E973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Publicação</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>GT-11 Autoavaliação – 3 Impacto na Sociedade</t>
+  </si>
+  <si>
+    <t>GT-10 Autoavaliação – 2 Formação</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cS7bOr0y9aCq8QV717F02bxAJfnDa74g</t>
   </si>
 </sst>
 </file>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,9 +624,20 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -633,7 +650,8 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{B0902303-CA82-3D43-A334-1731092BD19D}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{C77712AF-537C-734A-8401-7258464011DE}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{58117109-4234-094E-B82A-AC2BBED8C741}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{2767A6D6-224B-6544-B6DF-C4D38AC2BE86}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{2767A6D6-224B-6544-B6DF-C4D38AC2BE86}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{D5902C36-ED52-5041-B00B-FA55A0CFFCB5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Autoavaliação.xlsx
+++ b/docs/PPG/Autoavaliação.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8AAE3B-60E8-214A-8B30-73C30B19E973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2579E5F8-E5DE-CF4D-B4AF-A89A0152B1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="3560" yWindow="2020" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-2021 Autoavaliação" sheetId="16" r:id="rId1"/>
-    <sheet name="2020-2017 Autoavaliação" sheetId="15" r:id="rId2"/>
+    <sheet name="2024-2021" sheetId="16" r:id="rId1"/>
+    <sheet name="2020-2017" sheetId="15" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -522,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -661,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/docs/PPG/Autoavaliação.xlsx
+++ b/docs/PPG/Autoavaliação.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2579E5F8-E5DE-CF4D-B4AF-A89A0152B1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92581E93-67A8-DA47-BA7C-4A4138ABB892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="2020" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="3560" yWindow="2020" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-2021" sheetId="16" r:id="rId1"/>
-    <sheet name="2020-2017" sheetId="15" r:id="rId2"/>
+    <sheet name="Autoavaliação 2021-2024" sheetId="16" r:id="rId1"/>
+    <sheet name="Autoavaliação 2017-2020" sheetId="15" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -522,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -661,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/docs/PPG/Autoavaliação.xlsx
+++ b/docs/PPG/Autoavaliação.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92581E93-67A8-DA47-BA7C-4A4138ABB892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2268C76E-529D-034C-8260-2A19EAF09ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="2020" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Autoavaliação 2021-2024" sheetId="16" r:id="rId1"/>
@@ -112,12 +112,6 @@
     <t>https://drive.google.com/file/d/1nVBJsNtabVPDJjBJqISPsrnpUs3THSx-</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1nRjCxEUpVdmoD5rY5Xa8EwnPbSoHmqE_</t>
-  </si>
-  <si>
-    <t>GT-08 Planejamento Estratégico 2021-2024.pdf</t>
-  </si>
-  <si>
     <t>GT-01 Prêmio UNISUAM de Artigos.pdf</t>
   </si>
   <si>
@@ -149,6 +143,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1cS7bOr0y9aCq8QV717F02bxAJfnDa74g</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-0lNwW1ciTgJ7h63oxrLCb3Yv1i3jLBN</t>
+  </si>
+  <si>
+    <t>GT-08 Planejamento Estratégico.pdf</t>
   </si>
 </sst>
 </file>
@@ -224,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -264,7 +264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -370,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -594,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -602,10 +602,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -613,10 +613,10 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -624,10 +624,10 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -635,10 +635,10 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -730,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>

--- a/docs/PPG/Autoavaliação.xlsx
+++ b/docs/PPG/Autoavaliação.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2268C76E-529D-034C-8260-2A19EAF09ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0000FE-1E66-D24C-B3D2-1B1E69912519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Publicação</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>GT-08 Planejamento Estratégico.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lA3q1-csQBdJalpKKTC77oe0_ZMwWnoc</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -641,6 +644,17 @@
         <v>32</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2024</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{A7DA1C44-4E81-9C4D-84AA-C4B46C8E0CA0}"/>
@@ -652,6 +666,7 @@
     <hyperlink ref="C8" r:id="rId7" xr:uid="{58117109-4234-094E-B82A-AC2BBED8C741}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{2767A6D6-224B-6544-B6DF-C4D38AC2BE86}"/>
     <hyperlink ref="C9" r:id="rId9" xr:uid="{D5902C36-ED52-5041-B00B-FA55A0CFFCB5}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Autoavaliação.xlsx
+++ b/docs/PPG/Autoavaliação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0000FE-1E66-D24C-B3D2-1B1E69912519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AC201A-4401-AE41-A481-91C5EFCBE08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Publicação</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1lA3q1-csQBdJalpKKTC77oe0_ZMwWnoc</t>
+  </si>
+  <si>
+    <t>GT-02 Autoavaliação Docente.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yjL6aCLrSS359yjAySr28uSbAUqAOUNy</t>
   </si>
 </sst>
 </file>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,9 +655,20 @@
         <v>2024</v>
       </c>
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2024</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -666,7 +683,8 @@
     <hyperlink ref="C8" r:id="rId7" xr:uid="{58117109-4234-094E-B82A-AC2BBED8C741}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{2767A6D6-224B-6544-B6DF-C4D38AC2BE86}"/>
     <hyperlink ref="C9" r:id="rId9" xr:uid="{D5902C36-ED52-5041-B00B-FA55A0CFFCB5}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{FAE4B7B0-2D9B-B845-9F1C-29E965BFBD30}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Autoavaliação.xlsx
+++ b/docs/PPG/Autoavaliação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AC201A-4401-AE41-A481-91C5EFCBE08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE381C4-A855-AE49-89FA-699AEB7C2088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Publicação</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1yjL6aCLrSS359yjAySr28uSbAUqAOUNy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cDDjLmEu6IWHXcMFcM7DMCsRILHIEuUi</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,9 +669,20 @@
         <v>2024</v>
       </c>
       <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2024</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -683,8 +697,9 @@
     <hyperlink ref="C8" r:id="rId7" xr:uid="{58117109-4234-094E-B82A-AC2BBED8C741}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{2767A6D6-224B-6544-B6DF-C4D38AC2BE86}"/>
     <hyperlink ref="C9" r:id="rId9" xr:uid="{D5902C36-ED52-5041-B00B-FA55A0CFFCB5}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
     <hyperlink ref="C11" r:id="rId11" xr:uid="{FAE4B7B0-2D9B-B845-9F1C-29E965BFBD30}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{50633A75-2589-A94E-BA78-869D4F5F0E13}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Autoavaliação.xlsx
+++ b/docs/PPG/Autoavaliação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE381C4-A855-AE49-89FA-699AEB7C2088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C2C20A-4B06-6F4C-BCA9-817805E64541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Publicação</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1cDDjLmEu6IWHXcMFcM7DMCsRILHIEuUi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/177rwH-qj_R4zt0olVL7vehMPKNvmtnjy</t>
+  </si>
+  <si>
+    <t>GT-01 Prêmio UNISUAM de Artigos</t>
   </si>
 </sst>
 </file>
@@ -532,9 +538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -658,10 +666,10 @@
         <v>2024</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -669,10 +677,10 @@
         <v>2024</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -680,9 +688,20 @@
         <v>2024</v>
       </c>
       <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2024</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -697,9 +716,10 @@
     <hyperlink ref="C8" r:id="rId7" xr:uid="{58117109-4234-094E-B82A-AC2BBED8C741}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{2767A6D6-224B-6544-B6DF-C4D38AC2BE86}"/>
     <hyperlink ref="C9" r:id="rId9" xr:uid="{D5902C36-ED52-5041-B00B-FA55A0CFFCB5}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{FAE4B7B0-2D9B-B845-9F1C-29E965BFBD30}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{50633A75-2589-A94E-BA78-869D4F5F0E13}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{FAE4B7B0-2D9B-B845-9F1C-29E965BFBD30}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{50633A75-2589-A94E-BA78-869D4F5F0E13}"/>
+    <hyperlink ref="C11" r:id="rId13" xr:uid="{72A5BFFB-B4E7-D44A-91A1-0CA6FE1DABDF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Autoavaliação.xlsx
+++ b/docs/PPG/Autoavaliação.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C2C20A-4B06-6F4C-BCA9-817805E64541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B698F4-AF08-0349-A840-8D47A5397AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Publicação</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>GT-01 Prêmio UNISUAM de Artigos</t>
+  </si>
+  <si>
+    <t>GT-12 Acompanhamento de egressos</t>
+  </si>
+  <si>
+    <t>GT-7 Diversidade, Equidade e Inclusão</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iaJ1OSdLkwrFYWw7-tpbKqcBo6orMwSs</t>
   </si>
 </sst>
 </file>
@@ -538,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,6 +712,28 @@
       </c>
       <c r="C14" s="2" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -720,6 +751,8 @@
     <hyperlink ref="C12" r:id="rId11" xr:uid="{FAE4B7B0-2D9B-B845-9F1C-29E965BFBD30}"/>
     <hyperlink ref="C13" r:id="rId12" xr:uid="{50633A75-2589-A94E-BA78-869D4F5F0E13}"/>
     <hyperlink ref="C11" r:id="rId13" xr:uid="{72A5BFFB-B4E7-D44A-91A1-0CA6FE1DABDF}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{41F0D4E5-1AD3-4742-9A29-764A94786FCB}"/>
+    <hyperlink ref="C15" r:id="rId15" xr:uid="{0CDFC20D-F83E-BA4B-ADD8-E14A754A5997}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Autoavaliação.xlsx
+++ b/docs/PPG/Autoavaliação.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B698F4-AF08-0349-A840-8D47A5397AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5B409D-1F32-FA41-AC4A-46BD4FD1BEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>Publicação</t>
   </si>
@@ -172,10 +172,16 @@
     <t>GT-12 Acompanhamento de egressos</t>
   </si>
   <si>
-    <t>GT-7 Diversidade, Equidade e Inclusão</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1iaJ1OSdLkwrFYWw7-tpbKqcBo6orMwSs</t>
+  </si>
+  <si>
+    <t>GT-07 Diversidade, Equidade e Inclusão</t>
+  </si>
+  <si>
+    <t>GT-03 Estrutura Curricular</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1C-J3HXkWt-luecHqvdRZZ21pUrpTGOLO</t>
   </si>
 </sst>
 </file>
@@ -547,11 +553,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -697,10 +701,10 @@
         <v>2024</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -708,10 +712,10 @@
         <v>2024</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -719,10 +723,10 @@
         <v>2024</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -730,10 +734,21 @@
         <v>2024</v>
       </c>
       <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2024</v>
+      </c>
+      <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +762,13 @@
     <hyperlink ref="C8" r:id="rId7" xr:uid="{58117109-4234-094E-B82A-AC2BBED8C741}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{2767A6D6-224B-6544-B6DF-C4D38AC2BE86}"/>
     <hyperlink ref="C9" r:id="rId9" xr:uid="{D5902C36-ED52-5041-B00B-FA55A0CFFCB5}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
     <hyperlink ref="C12" r:id="rId11" xr:uid="{FAE4B7B0-2D9B-B845-9F1C-29E965BFBD30}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{50633A75-2589-A94E-BA78-869D4F5F0E13}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{50633A75-2589-A94E-BA78-869D4F5F0E13}"/>
     <hyperlink ref="C11" r:id="rId13" xr:uid="{72A5BFFB-B4E7-D44A-91A1-0CA6FE1DABDF}"/>
-    <hyperlink ref="C16" r:id="rId14" xr:uid="{41F0D4E5-1AD3-4742-9A29-764A94786FCB}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{0CDFC20D-F83E-BA4B-ADD8-E14A754A5997}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{41F0D4E5-1AD3-4742-9A29-764A94786FCB}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{0CDFC20D-F83E-BA4B-ADD8-E14A754A5997}"/>
+    <hyperlink ref="C13" r:id="rId16" xr:uid="{16A22DE2-AF95-2242-881F-1F6FA08AEDF9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Autoavaliação.xlsx
+++ b/docs/PPG/Autoavaliação.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5B409D-1F32-FA41-AC4A-46BD4FD1BEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BD2C90-3F0D-1F4E-9B11-BC80749B5306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Publicação</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1C-J3HXkWt-luecHqvdRZZ21pUrpTGOLO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EgSqbfgYakkVkLXMge_ykpSwY8dFudBS</t>
   </si>
 </sst>
 </file>
@@ -257,9 +260,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -297,7 +300,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -403,7 +406,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -545,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,9 +748,20 @@
         <v>2024</v>
       </c>
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2024</v>
+      </c>
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -766,9 +780,10 @@
     <hyperlink ref="C12" r:id="rId11" xr:uid="{FAE4B7B0-2D9B-B845-9F1C-29E965BFBD30}"/>
     <hyperlink ref="C14" r:id="rId12" xr:uid="{50633A75-2589-A94E-BA78-869D4F5F0E13}"/>
     <hyperlink ref="C11" r:id="rId13" xr:uid="{72A5BFFB-B4E7-D44A-91A1-0CA6FE1DABDF}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{41F0D4E5-1AD3-4742-9A29-764A94786FCB}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{41F0D4E5-1AD3-4742-9A29-764A94786FCB}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{0CDFC20D-F83E-BA4B-ADD8-E14A754A5997}"/>
     <hyperlink ref="C13" r:id="rId16" xr:uid="{16A22DE2-AF95-2242-881F-1F6FA08AEDF9}"/>
+    <hyperlink ref="C17" r:id="rId17" xr:uid="{A5D54BD5-B8E2-4A45-9B8A-E268890EE3EE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
